--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Miami_Heat__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Miami_Heat__.xlsx
@@ -588,43 +588,43 @@
         <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="G2" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H2" t="n">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="I2" t="n">
         <v>0.424</v>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K2" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L2" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="M2" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O2" t="n">
-        <v>0.586</v>
+        <v>0.589</v>
       </c>
       <c r="P2" t="n">
-        <v>0.516</v>
+        <v>0.517</v>
       </c>
       <c r="Q2" t="n">
         <v>47</v>
@@ -636,31 +636,31 @@
         <v>0.87</v>
       </c>
       <c r="T2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V2" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W2" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB2" t="n">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="G3" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H3" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="I3" t="n">
-        <v>0.447</v>
+        <v>0.444</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.396</v>
+        <v>0.392</v>
       </c>
       <c r="M3" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N3" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O3" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="P3" t="n">
-        <v>0.522</v>
+        <v>0.519</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S3" t="n">
-        <v>0.86</v>
+        <v>0.864</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
       </c>
       <c r="U3" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V3" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W3" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="n">
         <v>30</v>
       </c>
       <c r="AB3" t="n">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4">
@@ -764,40 +764,40 @@
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I4" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="M4" t="n">
         <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="P4" t="n">
         <v>0.508</v>
@@ -815,10 +815,10 @@
         <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V4" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W4" t="n">
         <v>35</v>
@@ -830,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I5" t="n">
-        <v>0.492</v>
+        <v>0.496</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L5" t="n">
-        <v>0.417</v>
+        <v>0.422</v>
       </c>
       <c r="M5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N5" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.59</v>
+        <v>0.595</v>
       </c>
       <c r="Q5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S5" t="n">
-        <v>0.846</v>
+        <v>0.824</v>
       </c>
       <c r="T5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U5" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="V5" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="W5" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB5" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -1116,79 +1116,79 @@
         <v>26</v>
       </c>
       <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>450</v>
+      </c>
+      <c r="G8" t="n">
+        <v>66</v>
+      </c>
+      <c r="H8" t="n">
+        <v>135</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" t="n">
+        <v>53</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="M8" t="n">
+        <v>46</v>
+      </c>
+      <c r="N8" t="n">
+        <v>82</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23</v>
+      </c>
+      <c r="R8" t="n">
+        <v>36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="T8" t="n">
+        <v>19</v>
+      </c>
+      <c r="U8" t="n">
+        <v>54</v>
+      </c>
+      <c r="V8" t="n">
+        <v>73</v>
+      </c>
+      <c r="W8" t="n">
         <v>22</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>416</v>
-      </c>
-      <c r="G8" t="n">
-        <v>57</v>
-      </c>
-      <c r="H8" t="n">
-        <v>123</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>45</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="M8" t="n">
-        <v>43</v>
-      </c>
-      <c r="N8" t="n">
-        <v>78</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.551</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>19</v>
-      </c>
-      <c r="R8" t="n">
-        <v>32</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="T8" t="n">
-        <v>17</v>
-      </c>
-      <c r="U8" t="n">
-        <v>48</v>
-      </c>
-      <c r="V8" t="n">
-        <v>65</v>
-      </c>
-      <c r="W8" t="n">
-        <v>19</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -1204,22 +1204,22 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I9" t="n">
-        <v>0.552</v>
+        <v>0.551</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
@@ -1231,16 +1231,16 @@
         <v>0.636</v>
       </c>
       <c r="M9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N9" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O9" t="n">
-        <v>0.541</v>
+        <v>0.54</v>
       </c>
       <c r="P9" t="n">
-        <v>0.589</v>
+        <v>0.587</v>
       </c>
       <c r="Q9" t="n">
         <v>28</v>
@@ -1252,13 +1252,13 @@
         <v>0.778</v>
       </c>
       <c r="T9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U9" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V9" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="W9" t="n">
         <v>16</v>
@@ -1270,13 +1270,13 @@
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB9" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -1292,31 +1292,31 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="G10" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I10" t="n">
-        <v>0.441</v>
+        <v>0.434</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L10" t="n">
-        <v>0.375</v>
+        <v>0.368</v>
       </c>
       <c r="M10" t="n">
         <v>25</v>
@@ -1328,7 +1328,7 @@
         <v>0.543</v>
       </c>
       <c r="P10" t="n">
-        <v>0.555</v>
+        <v>0.549</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1343,28 +1343,28 @@
         <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W10" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB10" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
@@ -1380,61 +1380,61 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>384</v>
+      </c>
+      <c r="G11" t="n">
+        <v>57</v>
+      </c>
+      <c r="H11" t="n">
+        <v>124</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>38</v>
+      </c>
+      <c r="K11" t="n">
+        <v>91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="M11" t="n">
+        <v>19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>33</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R11" t="n">
         <v>18</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>364</v>
-      </c>
-      <c r="G11" t="n">
-        <v>52</v>
-      </c>
-      <c r="H11" t="n">
-        <v>116</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="J11" t="n">
-        <v>34</v>
-      </c>
-      <c r="K11" t="n">
-        <v>84</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="M11" t="n">
-        <v>18</v>
-      </c>
-      <c r="N11" t="n">
-        <v>32</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>11</v>
-      </c>
-      <c r="R11" t="n">
-        <v>16</v>
-      </c>
       <c r="S11" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.722</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V11" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W11" t="n">
         <v>15</v>
@@ -1449,10 +1449,10 @@
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB11" t="n">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -1556,22 +1556,22 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" t="n">
-        <v>0.514</v>
+        <v>0.528</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O13" t="n">
-        <v>0.545</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>0.514</v>
+        <v>0.528</v>
       </c>
       <c r="Q13" t="n">
         <v>7</v>
@@ -1622,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="Z13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1644,43 +1644,43 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>103</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>24</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>71</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10</v>
-      </c>
       <c r="L14" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.289</v>
+        <v>0.438</v>
       </c>
       <c r="Q14" t="n">
         <v>6</v>
@@ -1695,28 +1695,28 @@
         <v>5</v>
       </c>
       <c r="U14" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
       <c r="AA14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -1894,77 +1894,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>6050</v>
+        <v>6290</v>
       </c>
       <c r="G17" t="n">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="H17" t="n">
-        <v>2132</v>
+        <v>2209</v>
       </c>
       <c r="I17" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="K17" t="n">
-        <v>854</v>
+        <v>901</v>
       </c>
       <c r="L17" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="M17" t="n">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="N17" t="n">
-        <v>1278</v>
+        <v>1308</v>
       </c>
       <c r="O17" t="n">
-        <v>0.531</v>
+        <v>0.532</v>
       </c>
       <c r="P17" t="n">
-        <v>0.529</v>
+        <v>0.534</v>
       </c>
       <c r="Q17" t="n">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="R17" t="n">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="S17" t="n">
-        <v>0.801</v>
+        <v>0.804</v>
       </c>
       <c r="T17" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="U17" t="n">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="V17" t="n">
-        <v>1104</v>
+        <v>1146</v>
       </c>
       <c r="W17" t="n">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="X17" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="n">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="AA17" t="n">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="AB17" t="n">
-        <v>2675</v>
+        <v>2788</v>
       </c>
     </row>
   </sheetData>
